--- a/medicine/Mort/La_Pie_sur_le_gibet/La_Pie_sur_le_gibet.xlsx
+++ b/medicine/Mort/La_Pie_sur_le_gibet/La_Pie_sur_le_gibet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pie sur le Gibet est un tableau peint par Pieter Bruegel l'Ancien en 1568. Il est conservé au musée régional de la Hesse à Darmstadt.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Technique : huile sur panneau de chêne ;
 Dimensions : hauteur 45,9 cm ; largeur 50,8 cm</t>
@@ -542,7 +556,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'homme qui défèque à l'avant-plan dans le coin inférieur gauche symbolise le défi de la mort et des autorités : « chier sous le gibet ». Les danseurs à gauche du gibet évoquent l'absence de crainte : « danser sous le gibet ».
 </t>
@@ -573,7 +589,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stéphane Lojikine, « La pie sur le gibet - Pieter Bruegel », sur Utpictura18, 12 février 2010 (consulté le 14 octobre 2017).</t>
         </is>
